--- a/natmiOut/OldD7/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.868948913373</v>
+        <v>155.2138263333333</v>
       </c>
       <c r="H2">
-        <v>151.868948913373</v>
+        <v>465.641479</v>
       </c>
       <c r="I2">
-        <v>0.3465271697135274</v>
+        <v>0.3492508712612995</v>
       </c>
       <c r="J2">
-        <v>0.3465271697135274</v>
+        <v>0.3492508712612995</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>21515.23744614379</v>
+        <v>23829.82623350332</v>
       </c>
       <c r="R2">
-        <v>21515.23744614379</v>
+        <v>214468.4361015299</v>
       </c>
       <c r="S2">
-        <v>0.1085963094905217</v>
+        <v>0.1107896047681023</v>
       </c>
       <c r="T2">
-        <v>0.1085963094905217</v>
+        <v>0.1107896047681023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.868948913373</v>
+        <v>155.2138263333333</v>
       </c>
       <c r="H3">
-        <v>151.868948913373</v>
+        <v>465.641479</v>
       </c>
       <c r="I3">
-        <v>0.3465271697135274</v>
+        <v>0.3492508712612995</v>
       </c>
       <c r="J3">
-        <v>0.3465271697135274</v>
+        <v>0.3492508712612995</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>25607.85540044026</v>
+        <v>26200.04773482231</v>
       </c>
       <c r="R3">
-        <v>25607.85540044026</v>
+        <v>235800.4296134008</v>
       </c>
       <c r="S3">
-        <v>0.1292534464198147</v>
+        <v>0.1218092362488722</v>
       </c>
       <c r="T3">
-        <v>0.1292534464198147</v>
+        <v>0.1218092362488722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.868948913373</v>
+        <v>155.2138263333333</v>
       </c>
       <c r="H4">
-        <v>151.868948913373</v>
+        <v>465.641479</v>
       </c>
       <c r="I4">
-        <v>0.3465271697135274</v>
+        <v>0.3492508712612995</v>
       </c>
       <c r="J4">
-        <v>0.3465271697135274</v>
+        <v>0.3492508712612995</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>9354.154371314931</v>
+        <v>10568.55962084051</v>
       </c>
       <c r="R4">
-        <v>9354.154371314931</v>
+        <v>95117.03658756464</v>
       </c>
       <c r="S4">
-        <v>0.04721428920653165</v>
+        <v>0.04913533703048363</v>
       </c>
       <c r="T4">
-        <v>0.04721428920653165</v>
+        <v>0.04913533703048364</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.868948913373</v>
+        <v>155.2138263333333</v>
       </c>
       <c r="H5">
-        <v>151.868948913373</v>
+        <v>465.641479</v>
       </c>
       <c r="I5">
-        <v>0.3465271697135274</v>
+        <v>0.3492508712612995</v>
       </c>
       <c r="J5">
-        <v>0.3465271697135274</v>
+        <v>0.3492508712612995</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>12177.15156328094</v>
+        <v>14522.22047830446</v>
       </c>
       <c r="R5">
-        <v>12177.15156328094</v>
+        <v>130699.9843047401</v>
       </c>
       <c r="S5">
-        <v>0.06146312459665935</v>
+        <v>0.06751669321384136</v>
       </c>
       <c r="T5">
-        <v>0.06146312459665935</v>
+        <v>0.06751669321384136</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>245.264233004029</v>
+        <v>246.1811623333333</v>
       </c>
       <c r="H6">
-        <v>245.264233004029</v>
+        <v>738.543487</v>
       </c>
       <c r="I6">
-        <v>0.5596319794332977</v>
+        <v>0.5539389593320749</v>
       </c>
       <c r="J6">
-        <v>0.5596319794332977</v>
+        <v>0.5539389593320749</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>34746.5248682139</v>
+        <v>37795.95193901448</v>
       </c>
       <c r="R6">
-        <v>34746.5248682139</v>
+        <v>340163.5674511303</v>
       </c>
       <c r="S6">
-        <v>0.1753800941195268</v>
+        <v>0.175720902709327</v>
       </c>
       <c r="T6">
-        <v>0.1753800941195268</v>
+        <v>0.175720902709327</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>245.264233004029</v>
+        <v>246.1811623333333</v>
       </c>
       <c r="H7">
-        <v>245.264233004029</v>
+        <v>738.543487</v>
       </c>
       <c r="I7">
-        <v>0.5596319794332977</v>
+        <v>0.5539389593320749</v>
       </c>
       <c r="J7">
-        <v>0.5596319794332977</v>
+        <v>0.5539389593320749</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>41355.99185090567</v>
+        <v>41555.30700400107</v>
       </c>
       <c r="R7">
-        <v>41355.99185090567</v>
+        <v>373997.7630360097</v>
       </c>
       <c r="S7">
-        <v>0.2087408099292621</v>
+        <v>0.193198892592747</v>
       </c>
       <c r="T7">
-        <v>0.2087408099292621</v>
+        <v>0.193198892592747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>245.264233004029</v>
+        <v>246.1811623333333</v>
       </c>
       <c r="H8">
-        <v>245.264233004029</v>
+        <v>738.543487</v>
       </c>
       <c r="I8">
-        <v>0.5596319794332977</v>
+        <v>0.5539389593320749</v>
       </c>
       <c r="J8">
-        <v>0.5596319794332977</v>
+        <v>0.5539389593320749</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>15106.70557541351</v>
+        <v>16762.55494185249</v>
       </c>
       <c r="R8">
-        <v>15106.70557541351</v>
+        <v>150862.9944766724</v>
       </c>
       <c r="S8">
-        <v>0.07624979636670616</v>
+        <v>0.07793245400591471</v>
       </c>
       <c r="T8">
-        <v>0.07624979636670616</v>
+        <v>0.07793245400591474</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>245.264233004029</v>
+        <v>246.1811623333333</v>
       </c>
       <c r="H9">
-        <v>245.264233004029</v>
+        <v>738.543487</v>
       </c>
       <c r="I9">
-        <v>0.5596319794332977</v>
+        <v>0.5539389593320749</v>
       </c>
       <c r="J9">
-        <v>0.5596319794332977</v>
+        <v>0.5539389593320749</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>19665.76946578789</v>
+        <v>23033.36759015359</v>
       </c>
       <c r="R9">
-        <v>19665.76946578789</v>
+        <v>207300.3083113823</v>
       </c>
       <c r="S9">
-        <v>0.09926127901780259</v>
+        <v>0.1070867100240862</v>
       </c>
       <c r="T9">
-        <v>0.09926127901780259</v>
+        <v>0.1070867100240862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.20386494663305</v>
+        <v>0.2401933333333333</v>
       </c>
       <c r="H10">
-        <v>0.20386494663305</v>
+        <v>0.72058</v>
       </c>
       <c r="I10">
-        <v>0.0004651691044549622</v>
+        <v>0.0005404655817044752</v>
       </c>
       <c r="J10">
-        <v>0.0004651691044549622</v>
+        <v>0.0005404655817044752</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>28.88149793054419</v>
+        <v>36.87664643668444</v>
       </c>
       <c r="R10">
-        <v>28.88149793054419</v>
+        <v>331.88981793016</v>
       </c>
       <c r="S10">
-        <v>0.0001457768753733826</v>
+        <v>0.0001714468684689475</v>
       </c>
       <c r="T10">
-        <v>0.0001457768753733826</v>
+        <v>0.0001714468684689475</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.20386494663305</v>
+        <v>0.2401933333333333</v>
       </c>
       <c r="H11">
-        <v>0.20386494663305</v>
+        <v>0.72058</v>
       </c>
       <c r="I11">
-        <v>0.0004651691044549622</v>
+        <v>0.0005404655817044752</v>
       </c>
       <c r="J11">
-        <v>0.0004651691044549622</v>
+        <v>0.0005404655817044752</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>34.37532235490381</v>
+        <v>40.54456324918223</v>
       </c>
       <c r="R11">
-        <v>34.37532235490381</v>
+        <v>364.9010692426401</v>
       </c>
       <c r="S11">
-        <v>0.0001735064813778599</v>
+        <v>0.0001884997437185194</v>
       </c>
       <c r="T11">
-        <v>0.0001735064813778599</v>
+        <v>0.0001884997437185194</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.20386494663305</v>
+        <v>0.2401933333333333</v>
       </c>
       <c r="H12">
-        <v>0.20386494663305</v>
+        <v>0.72058</v>
       </c>
       <c r="I12">
-        <v>0.0004651691044549622</v>
+        <v>0.0005404655817044752</v>
       </c>
       <c r="J12">
-        <v>0.0004651691044549622</v>
+        <v>0.0005404655817044752</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>12.55677474131453</v>
+        <v>16.35484172917778</v>
       </c>
       <c r="R12">
-        <v>12.55677474131453</v>
+        <v>147.1935755626</v>
       </c>
       <c r="S12">
-        <v>6.337923991886793E-05</v>
+        <v>7.60369141371658E-05</v>
       </c>
       <c r="T12">
-        <v>6.337923991886793E-05</v>
+        <v>7.603691413716581E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.20386494663305</v>
+        <v>0.2401933333333333</v>
       </c>
       <c r="H13">
-        <v>0.20386494663305</v>
+        <v>0.72058</v>
       </c>
       <c r="I13">
-        <v>0.0004651691044549622</v>
+        <v>0.0005404655817044752</v>
       </c>
       <c r="J13">
-        <v>0.0004651691044549622</v>
+        <v>0.0005404655817044752</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>16.34629311227313</v>
+        <v>22.47313030344667</v>
       </c>
       <c r="R13">
-        <v>16.34629311227313</v>
+        <v>202.25817273102</v>
       </c>
       <c r="S13">
-        <v>8.250650778485174E-05</v>
+        <v>0.0001044820553798426</v>
       </c>
       <c r="T13">
-        <v>8.250650778485174E-05</v>
+        <v>0.0001044820553798426</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>40.9228132182852</v>
+        <v>42.784114</v>
       </c>
       <c r="H14">
-        <v>40.9228132182852</v>
+        <v>128.352342</v>
       </c>
       <c r="I14">
-        <v>0.09337568174871978</v>
+        <v>0.09626970382492123</v>
       </c>
       <c r="J14">
-        <v>0.09337568174871978</v>
+        <v>0.09626970382492124</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>5797.525100788182</v>
+        <v>6568.602979897308</v>
       </c>
       <c r="R14">
-        <v>5797.525100788182</v>
+        <v>59117.42681907578</v>
       </c>
       <c r="S14">
-        <v>0.02926250903343405</v>
+        <v>0.0305387425359507</v>
       </c>
       <c r="T14">
-        <v>0.02926250903343405</v>
+        <v>0.03053874253595072</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>40.9228132182852</v>
+        <v>42.784114</v>
       </c>
       <c r="H15">
-        <v>40.9228132182852</v>
+        <v>128.352342</v>
       </c>
       <c r="I15">
-        <v>0.09337568174871978</v>
+        <v>0.09626970382492123</v>
       </c>
       <c r="J15">
-        <v>0.09337568174871978</v>
+        <v>0.09626970382492124</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>6900.327492691264</v>
+        <v>7221.945722056771</v>
       </c>
       <c r="R15">
-        <v>6900.327492691264</v>
+        <v>64997.51149851094</v>
       </c>
       <c r="S15">
-        <v>0.03482880920361691</v>
+        <v>0.03357626297242741</v>
       </c>
       <c r="T15">
-        <v>0.03482880920361691</v>
+        <v>0.03357626297242742</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>40.9228132182852</v>
+        <v>42.784114</v>
       </c>
       <c r="H16">
-        <v>40.9228132182852</v>
+        <v>128.352342</v>
       </c>
       <c r="I16">
-        <v>0.09337568174871978</v>
+        <v>0.09626970382492123</v>
       </c>
       <c r="J16">
-        <v>0.09337568174871978</v>
+        <v>0.09626970382492124</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>2520.583140209112</v>
+        <v>2913.184155790193</v>
       </c>
       <c r="R16">
-        <v>2520.583140209112</v>
+        <v>26218.65740211174</v>
       </c>
       <c r="S16">
-        <v>0.01272242648847922</v>
+        <v>0.01354397292175489</v>
       </c>
       <c r="T16">
-        <v>0.01272242648847922</v>
+        <v>0.01354397292175489</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>40.9228132182852</v>
+        <v>42.784114</v>
       </c>
       <c r="H17">
-        <v>40.9228132182852</v>
+        <v>128.352342</v>
       </c>
       <c r="I17">
-        <v>0.09337568174871978</v>
+        <v>0.09626970382492123</v>
       </c>
       <c r="J17">
-        <v>0.09337568174871978</v>
+        <v>0.09626970382492124</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>3281.271797299013</v>
+        <v>4002.996067776722</v>
       </c>
       <c r="R17">
-        <v>3281.271797299013</v>
+        <v>36026.96460999049</v>
       </c>
       <c r="S17">
-        <v>0.01656193702318959</v>
+        <v>0.01861072539478822</v>
       </c>
       <c r="T17">
-        <v>0.01656193702318959</v>
+        <v>0.01861072539478822</v>
       </c>
     </row>
   </sheetData>
